--- a/finetuning/it_datasets/it_dataset/it_douz_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_douz_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Porte+De+Sahara/data=!4m7!3m6!1s0x125687e445f2d131:0x81e32c0e8c9ba04b!8m2!3d33.4527513!4d9.0204856!16s%2Fg%2F11gg_v2402!19sChIJMdHyReSHVhIRS6CbjA4s44E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 801 217.</t>
+          <t>Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.</t>
         </is>
       </c>
     </row>
@@ -759,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out casa catering located at 4200. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 20:00-00:30. To get there, use these GPS coordinates: 41.0269148, 28.9761197. For more details, visit their website at https://www.google.com/maps/place/casa+catering/data=!4m7!3m6!1s0x125687b79b615933:0xe7247f52710b4076!8m2!3d33.4568261!4d9.0248257!16s%2Fg%2F11fnxpp76l!19sChIJM1lhm7eHVhIRdkALcVJ_JOc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 480 719.</t>
+          <t>Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.</t>
         </is>
       </c>
     </row>
@@ -864,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated restaurant, check out Cafe Sahara located at F24F+RRC Cafe Sahara, Unnamed Road. It's perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Cafe+Sahara/data=!4m7!3m6!1s0x1256872c35e07963:0x2f16e61f9943130!8m2!3d33.4570671!4d9.0245182!16s%2Fg%2F11g0s4ynm1!19sChIJY3ngNSyHVhIRMDGU-WFu8QI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 336 633.</t>
+          <t>Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.</t>
         </is>
       </c>
     </row>
@@ -967,9 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe L'orient Douz ... mqh~ lshrq located at F24F+CJX Cafe L'orient Douz ... mqh~ lshrq, Douz. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+L%27orient+Douz+...+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x125687efffa74a43:0x85961e3489c9df9b!8m2!3d33.456109!4d9.0240973!16s%2Fg%2F11b_3gd925!19sChIJQ0qn_--HVhIRm9_JiTQeloU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 059 151.</t>
+          <t>Cafe L'orient Douz ... mqh~ lshrq is a highly rated (4.9) cafe located in Douz, Tunisia at (33.4597601, 9.0244002). it's open 24/7 and offers a cozy ambiance for enjoying coffee and drinks.</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in douz and searching for a local cafe, dr lswq Dar El Souk is the place to go, situated at F24F+7P8 dr lswq Dar El Souk, Douz. This well-liked cafe is open from morning till evening hours, offering a chilled-out atmosphere. With 4.4 stars out of 12 reviews, it is a popular choice among both locals and tourists. For further details, you can check out their website or give them a call.</t>
+          <t>Dr lswq Dar El Souk is a cafe located in Douz, Tunisia. It has a rating of 4.4 out of 5 stars on Google, and is known for offering a variety of cafe drinks and snacks. The cafe is located at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe de la Republique located at F24G+74H Cafe de la Republique, C206. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-01:00, but closed on [None]. To get there, use these GPS coordinates: 33.4555822, 9.0253572. For more details, visit their website at [None] or call them at 75 470 011.</t>
+          <t>Cafe de la Republique is a café located in Douz, Tunisia. It is open from 5:30 AM to 1:00 AM, and serves a variety of drinks and snacks. The café is rated 4.0 stars on Google, and has received 7 reviews. It is located at the coordinates (33.4555822, 9.0253572).</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1256,8 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something to eat, check out Restaurant pizza Venezia located at F25C+7RG. This top-rated destination is perfect for Restaurant familial lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 43.766761, -80.058194. For more details, visit their website at https://www.google.com/maps/place/Restaurant+pizza+Venezia/data=!4m7!3m6!1s0x12568741b7b96d3b:0x6722fd96ef2d21e4!8m2!3d33.458187!4d9.0220653!16s%2Fg%2F11sfk5yc8v!19sChIJO225t0GHVhIR5CEt75b9Imc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 604 035.</t>
+          <t>**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1356,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in douz, cafe saraya situated at F2CF+M43 cafe saraya, C206, Douz is the place to be. This Cafe offers a range of Cafe to choose from and has received a 5.0 rating from reviewers. Whether you're looking for just Cafe or Cafe, cafe saraya has got you covered. It's open 24h/24, so you can visit anytime. For more information, visit their website at https://www.google.com/maps/place/caf%C3%A9+saraya/data=!4m7!3m6!1s0x12567d57692f5289:0x6441582e6939b2a0!8m2!3d33.4716269!4d9.0228014!16s%2Fg%2F11css6616x!19sChIJiVIvaVd9VhIRoLI5aS5YQWQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1459,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a fantastic Cafe des arts experience, check out L'artisan house byt l'rtyzn located at F25C+8W3 L'artisan house byt l'rtyzn. This top-rated destination is perfect for Cafe des arts lovers and offers a range of Cafe des arts to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61554449017414 or call them at 25 179 349.</t>
+          <t>L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1562,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Overdose pastry coffee shop located at C206, Douz 4260. This top-rated destination is perfect for Patisserie lovers and offers a range of Patisserie to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website.</t>
+          <t>Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.</t>
         </is>
       </c>
     </row>
@@ -1670,9 +1665,8 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a family-oriented restaurant, check out Magic food located at F25C+RGJ Magic food, Douz. 
-This top-rated destination offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. Visit their website at https://www.facebook.com/profile.php%3Fid%3D100088987624929%26mibextid%3DZbWKwL or call them at 22 880 889 for more details.</t>
+          <t>**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1769,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you happen to be in douz and are seeking something delightful to savor, visit patisserie abderrahim at F24F+4J8. This highly-acclaimed destination is a haven for restaurant enthusiasts and offers a delectable range of restaurant options. Earning a remarkable rating of 5.0, it's a place you mustn't miss. It welcomes patrons from 04:30 to 19:30 every day of the week. To reach this culinary gem, simply follow the GPS coordinates: 33.2432696, -8.5258896. For more information, you may contact them at 97 570 019.</t>
+          <t>**Patisserie Abderrahim** is a highly-rated restaurant located in Douz, Morocco. It serves a delectable selection of pastries and other culinary delights, earning a 5.0 rating from reviewers. Open from 4:30 am to 7:30 pm daily, Patisserie Abderrahim offers a cozy and inviting ambiance for guests to indulge in its sweet treats and savor the vibrant atmosphere of Douz.</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1864,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cup of coffee, check out mqh~ at F25C+223 mqh~. This top-rated Cafe is perfect for coffee lovers and offers a range of beverages to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1963,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Pizzeria, check out Vero gusto located at F24C+F7G Vero gusto. This top-rated destination offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website or call them at 93 610 257.</t>
+          <t>Vero gusto is a 5-star Pizzeria located in douz.</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2066,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Clasico , Douz located at F23C+34H Cafe Clasico , Douz, rue de Hnich, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Clasico+,+Douz/data=!4m7!3m6!1s0x125687e4442a1d51:0x4542df61ed2e1ab6!8m2!3d33.4526865!4d9.020352!16s%2Fg%2F11f54sydhr!19sChIJUR0qROSHVhIRthou7WHfQkU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 212 317.</t>
+          <t>Cafe Clasico, a highly-rated (5.0/5) cafe located in Douz, Tunisia. It operates 24 hours a day and is renowned for its exceptional coffee and cozy ambiance. The cafe is conveniently positioned on rue de Hnich and can be easily located using the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2169,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Located at Avenue des Martyrs, Douz 4260, Restaurant "Chez Magic" is a highly recommended destination for those seeking a memorable dining experience in Douz. With a remarkable rating of 4.3, this top-rated restaurant offers a range of delectable dishes to satisfy every palate. Open from 10:00-22:00, it's a perfect spot for lunch, dinner, or a casual get-together. For more information, you can visit their website or call them at 21 731 781.</t>
+          <t>Restaurant "Chez Magic" is located in Douz, Tunisia at coordinates (33.1380679, 9.0778647). It offers a dining experience with an average rating of 4.3 out of 5 stars based on 3 reviews. The restaurant is open from 10:00 AM to 10:00 PM every day. To contact the restaurant, you can call 21 731 781.</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2268,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out la casa plus located at F25G+9R7 la casa plus, Avenue Mohamed Marzougui, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.459978201876, 9.035618365702. For more details, visit their website at  or call them at 27 218 690.</t>
+          <t>La Casa Plus is a café located in Douz, Tunisia. It is rated 5.0 based on 2 reviews. The café offers a variety of food and drinks, and is located at coordinates (33.459978201876, 9.035618365702).</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2363,8 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out mqh~ thqfy located at F24G+445 mqh~ thqfy, Douz. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%AB%D9%82%D8%A7%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x125687b6cb3b5a6b:0x30647d1ab2a55536!8m2!3d33.4552645!4d9.0253704!16s%2Fg%2F11rd81qxgy!19sChIJa1o7y7aHVhIRNlWlshp9ZDA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2463,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Expresso located at Cafe Expresso, vers souk Douz, Douz 4260. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Expresso/data=!4m7!3m6!1s0x125687efc1ceeccb:0xf5f25ec985b05e97!8m2!3d33.4549869!4d9.0253836!16s%2Fg%2F11hbqdjd2q!19sChIJy-zOwe-HVhIRl16whcle8vU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 211 928.</t>
+          <t>Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2558,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a top-rated restaurant, check out Sahara located at F22M+P84. This destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4347514, 9.0200775.</t>
+          <t>"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2657,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Le_Bon_Jour_12 located at F25P+WCF Le_Bon_Jour_12, Douz. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 20 797 527.</t>
+          <t>Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2760,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe, check out Cafe Jdayda located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260. This top-rated destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-23:30, but closed on []. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, you can call them at 20 517 824.</t>
+          <t>Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2859,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a top-rated spot, check out Cafeteria Africa located at F26F+7Q Cafeteria Africa, Douz. This spot is perfect for Cafe lovers and is open during these hours: 06:00-20:00. To get there, use these GPS coordinates: -25.54112, 28.0949. For more details, visit their website or call them at .</t>
+          <t>Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2954,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great cafe experience, be sure to check out Cafe Azouza located at F24F+4J8 Cafe Azouza. This top-rated cafe is perfect for those who love cafe and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Azouza/data=!4m7!3m6!1s0x125687eff6642a1f:0x957c7acece8f0278!8m2!3d33.455293!4d9.024086!16s%2Fg%2F11g7z0kxs3!19sChIJHypk9u-HVhIReAKPzs56fJU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 765 850.</t>
+          <t>Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3057,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out mntzh `rft located at F26R+494 mntzh `rft, Douz. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>mntzh `rft is a cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3160,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great dining experience, check out Restaurant SAIF located at F25G+RH2 Restaurant SAIF, Douz. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00 but closed on . To get there, use these GPS coordinates: 34.1070436, 35.8976343. For more details, visit their website at or call them at 20 279 293.</t>
+          <t>Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.</t>
         </is>
       </c>
     </row>
@@ -3264,9 +3259,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Total Walid located at C206, Douz. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at  or call them at 72 470 242.</t>
+          <t>Cafe Total Walid is a cafe located in Douz, Tunisia. It has a 4.0 rating based on 1 review. The cafe offers a variety of food and drinks, and is located near the center of Douz. The cafe is open every day of the week and its latitude and longitude are 33.4597601, 9.0244002.</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3354,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a fantastic dining experience, check out Dar Ali baba at F27J+CC Douz. This top-rated restaurant is a must-visit for food lovers, offering a delicious menu. With a 5.0 rating, it's a spot you won't want to miss. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them at 25 493 907.</t>
+          <t>Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3461,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sun Palm Douz located at Sun Palm Douz, Zone Touristique Bp 98, Douz 4260. This top-rated destination is perfect for Hotel lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.goldenyasmin.com/ or call them at 75 470 123.</t>
+          <t>Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3568,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. This elegant hotel offers a range of amenities including a restaurant, bars, indoor and outdoor pools, and a spa. With a rating of 4.0, it's a must-visit spot for hotel lovers. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3671,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Hotel 20 mars located at F24F+CP3 Hotel 20 mars, Douz. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.456008, 9.0243538. For more details, visit their website at http://www.nefzaoua-voyages.com/ or call them at 75 472 920.</t>
+          <t>Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3770,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a maison d'hotes, check out Maison Proche de Desert located at Maison Proche de Desert, Douz. This top-rated destination is perfect for maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them at 96 894 044.</t>
+          <t>Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.</t>
         </is>
       </c>
     </row>
@@ -3880,9 +3873,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a pleasurable stay, check out Maison d'hote Murmures de civilisation situated at 17 Rue de Combattants, Douz 4260. 
-This top-rated destination is excellent for Hotel lovers and provides different categories of Hotel to select from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 33.4609735, 9.0248908. For further information, explore their website at https://www.facebook.com/maison.hotes.douz.tunisie/ or contact them at 22 364 896.</t>
+          <t>Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3976,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out The Residence Douz located at Tourist Rout, Douz 4260. This 4.8-rated destination is perfect for Hotel and Complexe hotelier lovers. For more details, visit their website at https://www.cenizaro.com/theresidence/tunis-dz or call them at 31 323 238.</t>
+          <t>The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4075,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a comfortable stay, check out La Maison du voyageur located at C2RJ+6JW. This top-rated destination is perfect for Hotel lovers. With a rating of 4.5, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 47.092029, -69.980091. For more details, visit their website  or call them at 98 661 438.</t>
+          <t>La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4170,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a luxurious stay, look no further than Le Saharien Paradise, located at C2WG+2PM Le Saharien Paradise, Unnamed Road, Douz. This highly-rated hotel is perfect for travelers seeking a comfortable and relaxing getaway. With a rating of 4.5, it's a must-visit spot for those seeking a top-notch hotel experience. To get there, use these GPS coordinates: 33.4457294, 9.0260644. For more details, visit their website at https://www.google.com/maps/place/Le+Saharien+Paradise/data=!4m10!3m9!1s0x125687666adcab4b:0x3f6d17e2cb431ea2!5m2!4m1!1i2!8m2!3d33.4450801!4d9.0268041!16s%2Fg%2F11frclgvvf!19sChIJS6vcamaHVhIRoh5Dy-IXbT8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).</t>
         </is>
       </c>
     </row>
@@ -4274,7 +4265,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out Le Saharien Paradise located at F26H+HQH Le Saharien Paradise, Douz. This 4.0-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. To get there, use these GPS coordinates: 33.4457294, 9.0260644. For more details, visit their website at https://www.google.com/maps/place/Le+Saharien+Paradise/data=!4m10!3m9!1s0x125687f3ffffffdd:0x45d9e3695637ad7d!5m2!4m1!1i2!8m2!3d33.4614354!4d9.0294708!16s%2Fg%2F11b73qnv08!19sChIJ3f____OHVhIRfa03Vmnj2UU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.</t>
         </is>
       </c>
     </row>
@@ -4381,9 +4372,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).</t>
         </is>
       </c>
     </row>
@@ -4490,9 +4479,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4582,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in douz, Souk Douz is a must-visit spot for any Marche lover. With a rating of 4.3, it offers a range of Marche options to choose from. It's open 24 hours a day, so you can visit it anytime that suits you. To get there, use these GPS coordinates: 33.4558188, 9.0247194. For more details, visit their website at https://www.google.com/maps/place/Souk+Douz/data=!4m7!3m6!1s0x125687efef05816d:0x7b2dd73ef101141e!8m2!3d33.4553495!4d9.0248511!16s%2Fg%2F11btn1cppn!19sChIJbYEF7--HVhIRHhQB8T7XLXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 483 885.</t>
+          <t>Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.</t>
         </is>
       </c>
     </row>
@@ -4702,8 +4689,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated travel agency, check out Sahara Desert Tunisia g' located at Sahara Desert Tunisia g', Souk Douz, 4260. 
-This highly-rated spot has a 4.7 rating, making it a must-visit for travel enthusiasts. It's open 24 hours a day, seven days a week, so you can plan your visit at your convenience. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.sahara-tunisia.com/ or call them at 24 631 777.</t>
+          <t>The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4792,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out La Porta del Sahara located at C2PM+F9H La Porta del Sahara, Douz. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/La+Porta+del+Sahara/data=!4m7!3m6!1s0x1256879c938a61fd:0xf4d01c3d560bd97b!8m2!3d33.4361867!4d9.0334976!16s%2Fg%2F11hzlywcnr!19sChIJ_WGKk5yHVhIRe9kLVj0c0PQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 345 597.</t>
+          <t>La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4891,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Musee du Sahara de Douz located at F229+Q9W Musee du Sahara de Douz, Douz. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee, Musee archeologique to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 33.4522958, 9.0182292. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+Sahara+de+Douz/data=!4m7!3m6!1s0x125687e4082bf04f:0x6f5f53dfea6783a2!8m2!3d33.4519782!4d9.0184656!16s%2Fg%2F123dm0hvj!19sChIJT_ArCOSHVhIRooNn6t9TX28?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.</t>
         </is>
       </c>
     </row>
@@ -5004,7 +4990,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in Douz and in search of a captivating experience, visit the Sahara Museum, located on Unnamed Road. With its top rating of 4.7 out of 6 reviews, this renowned museum is a must-see for history and heritage enthusiasts. Open from 9:30 AM to 4:30 PM daily, except on Mondays, this cultural gem offers an unforgettable journey into the rich past of the region. GPS coordinates: (33.4597601, 9.0244002)</t>
+          <t>The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.</t>
         </is>
       </c>
     </row>
@@ -5103,9 +5089,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. 
-This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5188,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Musee du Sahara de Douz located at F229+Q9W Musee du Sahara de Douz, Douz. This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 33.4522958, 9.0182292. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+Sahara+de+Douz/data=!4m7!3m6!1s0x125687e4082bf04f:0x6f5f53dfea6783a2!8m2!3d33.4519782!4d9.0184656!16s%2Fg%2F123dm0hvj!19sChIJT_ArCOSHVhIRooNn6t9TX28?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5287,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Sahara+Museum/data=!4m7!3m6!1s0x125687aadb073e29:0x945d341ccc195081!8m2!3d33.4523692!4d9.0183059!16s%2Fm%2F0n8jg5k!19sChIJKT4H26qHVhIRgVAZzBw0XZQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5386,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.</t>
         </is>
       </c>
     </row>
@@ -5501,9 +5485,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to learn about local heritage, check out Sahara Museum located at the the address F229+W8V Sahara Museum, Unnamed Road, Douz. 
-This top-rated destination is the perfect spot for those interested in Musee du patrimoine and offers a range of related options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but it's closed on Mondays. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5584,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them.</t>
+          <t>The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.</t>
         </is>
       </c>
     </row>
@@ -5709,9 +5691,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sun Palm Douz located at Zone Touristique Bp 98, Douz 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.goldenyasmin.com/ or call them at 75 470 123.</t>
+          <t>The Sun Palm Douz hotel is located in Douz, Tunisia. It offers 4395 rooms and suites in a relaxed style, with an outdoor pool, restaurant, and hammam. The hotel is rated 4.7 stars and has received 4669 reviews. It is located in the desert and offers excursions, quad biking, and camel rides. The hotel is located at 33.1380679 latitude and 9.0778647 longitude.</t>
         </is>
       </c>
     </row>
@@ -5818,9 +5798,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to stay, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5901,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Porte+De+Sahara/data=!4m7!3m6!1s0x125687e445f2d131:0x81e32c0e8c9ba04b!8m2!3d33.4527513!4d9.0204856!16s%2Fg%2F11gg_v2402!19sChIJMdHyReSHVhIRS6CbjA4s44E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 801 217.</t>
+          <t>The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6004,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Souk Douz located at Souk Douz, Douz 4260. This top-rated destination is perfect for Marche lovers. With a rating of 4.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 33.4558188, 9.0247194. For more details, visit their website at https://www.google.com/maps/place/Souk+Douz/data=!4m7!3m6!1s0x125687efef05816d:0x7b2dd73ef101141e!8m2!3d33.4553495!4d9.0248511!16s%2Fg%2F11btn1cppn!19sChIJbYEF7--HVhIRHhQB8T7XLXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 483 885.</t>
+          <t>Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6107,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to eat, check out TEJ ELKHAYEM located at C2MG+4W7 TEJ ELKHAYEM, ZONE TOURISTIQUE, Douz. This top-rated restaurant is perfect for food enthusiasts and offers a range of cuisines to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on unspecified days. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their link at https://www.google.com/maps/place/TEJ+ELKHAYEM/data=!4m7!3m6!1s0x125687cf7218a599:0x6a2fec8cd63fa05!8m2!3d33.4327914!4d9.0272838!16s%2Fg%2F11gh2j1hhc!19sChIJmaUYcs-HVhIRBfpjzcj-ogY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 454 435.</t>
+          <t>TEJ ELKHAYEM is a restaurant located in the touristic area of Douz, Tunisia (33.4597601, 9.0244002). It offers a variety of dishes, including traditional Tunisian dishes and international cuisine. The restaurant is open from 6am to midnight and has a rating of 4.4 out of 5 on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -6224,9 +6202,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Douz located at Douz. 
-This top-rated destination is perfect for Constructeur immobilier lovers and offers a range of Constructeur immobilier to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their link at https://www.google.com/maps/place/Douz/data=!4m7!3m6!1s0x125687268701174f:0xa14f9c8b4d21c5de!8m2!3d33.4614354!4d9.0294708!16s%2Fg%2F11kplj280y!19sChIJTxcBhyaHVhIR3sUhTYucT6E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6301,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Sahara+Museum/data=!4m7!3m6!1s0x125687aadb073e29:0x945d341ccc195081!8m2!3d33.4523692!4d9.0183059!16s%2Fm%2F0n8jg5k!19sChIJKT4H26qHVhIRgVAZzBw0XZQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6404,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you are in douz and looking for a delightful dining experience, check out Restaurant ElBey located at FX9G+8V7 Restaurant ElBey, Douz. This highly-rated restaurant boasts a 4.1 rating and is perfect for those who appreciate great food. It's open daily from 08:00-00:00, so you can enjoy a meal whenever you're in the mood. For more information, visit their website https://www.google.com/maps/place/Restaurant+ElBey/data=!4m7!3m6!1s0x12568829acb2d1d7:0xfa14dbba84b6d7fd!8m2!3d33.4682998!4d8.9771699!16s%2Fg%2F11ddxqc03h!19sChIJ19GyrCmIVhIR_de2hLrbFPo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 081 659.</t>
+          <t>Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.</t>
         </is>
       </c>
     </row>
@@ -6531,9 +6507,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a delicious dining experience, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on . 
-To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at  or call 98 them at 801 217.</t>
+          <t>Restaurant La Porte De Sahara is a well-reviewed restaurant located in Douz, Tunisia. It offers traditional cuisine with vegetarian options, and is known for its soups, entrees, and couscous. The restaurant is open from 8am to 10pm daily, and is located at F23C+455 (32.6795736, -4.7279985).</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6610,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a comfortable place to stay, consider Hotel 20 mars located at F24F+CP3 Hotel 20 mars, Douz. This 4.1-rated hotel offers a range of accommodations, perfect for travelers seeking a convenient and comfortable stay. To get there, use these GPS coordinates: 33.456008, 9.0243538. For more details, visit their website at http://www.nefzaoua-voyages.com/ or call them at 75 472 920.</t>
+          <t>**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6713,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated restaurant, TEJ ELKHAYEM is a must-visit spot. Located at C2MG+4W7 TEJ ELKHAYEM, ZONE TOURISTIQUE, Douz, this popular destination offers a range of dining options. With a rating of 4.4 based on 59 reviews, it's perfect for restaurant lovers. TEJ ELKHAYEM is open from 06:00-00:00, so be sure to check it out during those hours. For more details, call them at 98 454 435.</t>
+          <t>TEJ ELKHAYEM is a restaurant located on C2MG+4W7 in the tourist area of Douz, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 6am to midnight, seven days a week. It has a 4.4-star rating on Google, with many positive reviews mentioning the friendly staff, delicious food, and beautiful views.</t>
         </is>
       </c>
     </row>
@@ -6842,9 +6816,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out casa catering located at casa catering, 4200. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 20:00-00:30, but closed on . To get there, use these GPS coordinates: 41.0269148, 28.9761197. For more details, visit their link at https://www.google.com/maps/place/casa+catering/data=!4m7!3m6!1s0x125687b79b615933:0xe7247f52710b4076!8m2!3d33.4568261!4d9.0248257!16s%2Fg%2F11fnxpp76l!19sChIJM1lhm7eHVhIRdkALcVJ_JOc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 480 719.</t>
+          <t>Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6919,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a tasty meal, head to Cafe Sahara on F24F+RRC Cafe Sahara, Unnamed Road. This highly-rated restaurant is a top choice for food enthusiasts, with a menu featuring a variety of dishes. Rated 4.0 out of 5, Cafe Sahara is a must-visit culinary destination. Its hours of operation are 24 hours a day, so you can satisfy your cravings anytime. For more information, you can call them at 54 336 633.</t>
+          <t>Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7022,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe L'orient Douz ... mqh~ lshrq located at F24F+CJX Cafe L'orient Douz ... mqh~ lshrq, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at nan or call them at 51 059 151.</t>
+          <t>Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7117,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great cafe, check out dr lswq Dar El Souk located at F24F+7P8 Dr Lswq Dar El Souk. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%B3%D9%88%D9%82+Dar+El+Souk%E2%80%AD/data=!4m7!3m6!1s0x125687effa3c300b:0x6f00ac7c9cb8e228!8m2!3d33.4556502!4d9.0243243!16s%2Fg%2F11c1hjvxfp!19sChIJCzA8-u-HVhIRKOK4nHysAG8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -7244,8 +7216,8 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great family restaurant, check out Restaurant pizza Venezia at F25C+7RG. 
-This highly-rated spot offers a delicious selection of Italian cuisine and has a rating of 4.1. To get there, use these GPS coordinates: 43.766761, -80.058194. For more details, visit their website or call them at 28 604 035.</t>
+          <t>**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7316,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a cozy cafe, check out Cafe de la Republique located at F24G+74H C206, Douz. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-01:00, and closed on []. To get there, use these GPS coordinates: 33.4555822, 9.0253572. For more details, visit their website or call them at 75 470 011.</t>
+          <t>Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7415,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out cafe saraya located at F2CF+M43 cafe saraya, C206. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.</t>
         </is>
       </c>
     </row>
@@ -7546,9 +7518,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great family restaurant, check out Magic food located at F25C+RGJ. 
-This top-rated destination is perfect for Restaurant familial lovers. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100088987624929%26mibextid%3DZbWKwL or call them at 22 880 889.</t>
+          <t>Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7617,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a delicious pizza, check out Vero gusto located at F24C+F7G. This top-rated Pizzeria is perfect for pizza lovers and is open during the hours of operation. It's closed on [] . To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 93 610 257.</t>
+          <t>Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -7750,9 +7720,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out patisserie abderrahim. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-19:30, but closed on []. To get there, use these GPS coordinates: 33.2432696, -8.5258896. For more details, visit their website or call them at 97 570 019.</t>
+          <t>"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7819,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Compagnie Des Sables Douz located at C2J8+PPH Compagnie Des Sables Douz, zone touristique, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 15:00-00:00. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Compagnie+Des+Sables+Douz/data=!4m7!3m6!1s0x125687d71fba09d9:0x3dce694a533a6e66!8m2!3d33.4318051!4d9.0168703!16s%2Fg%2F11d_2bk40g!19sChIJ2Qm6H9eHVhIRZm46U0ppzj0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Compagnie Des Sables Douz is a restaurant located in Douz, Tunisia. It's highly rated with 4.8 out of 5 stars on Google. Unfortunately, there is no additional information available on its website or phone number.</t>
         </is>
       </c>
     </row>
@@ -7954,9 +7922,9 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant "Chez Magic" located at Avenue des Martyrs, Douz 4260. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on unspecified days. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at nan or call them at 21 731 781.</t>
+          <t>"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).</t>
         </is>
       </c>
     </row>
@@ -8051,9 +8019,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Fast food klt sry`@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8122,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, head to Cafe Clasico , Douz located at F23C+34H Cafe Clasico , Douz, rue de Hnich, Douz. This top-rated destination is perfect for cafe lovers and offers a great atmosphere. With a rating of 5.0, it's a must-visit spot. If you need directions, here are the GPS coordinates: 33.4597601, 9.0244002. For more details, please visit their website or call them at 90 212 317.</t>
+          <t>Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8217,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restaurant, check out sahara located at F22M+P84 sahara, Douz. With a rating of 5.0, this is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/sahara/data=!4m7!3m6!1s0x125687fc9fbfe125:0x7232ee20a3b64ec6!8m2!3d33.4517682!4d9.0333332!16s%2Fg%2F11hfnd915s!19sChIJJeG_n_yHVhIRxk62oyDuMnI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8316,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restauration rapide spot, check out Le_Bon_Jour_12 located at F25P+WCF Le_Bon_Jour_12, Douz. This destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at  or call them at 20 797 527.</t>
+          <t>Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -8441,9 +8407,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Chappati Iheb. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. Its GPS coordinates are: {latitude}, {longitude}. For more details, visit their  link at https://www.google.com/maps/place/Chappati+Iheb/data=!4m7!3m6!1s0x125687ea50133935:0xa1bde0799599f88b!8m2!3d33.4582443!4d9.0223255!16s%2Fg%2F11sdfxqz89!19sChIJNTkTUOqHVhIRi_iZlXngvaE?authuser=0&amp;hl=fr&amp;rclk=1 .</t>
+          <t>Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8506,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe experience, check out la casa plus located at F25G+9R7 la casa plus, Avenue Mohamed Marzougui. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.459978201876, 9.035618365702. For more details, visit their link at https://www.google.com/maps/place/la+casa+plus/data=!4m7!3m6!1s0x125687f901f623d7:0xd9ae1bfca7beefd!8m2!3d33.4585095!4d9.0270445!16s%2Fg%2F11vkjkv0ls!19sChIJ1yP2AfmHVhIR_e57yr_hmg0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 218 690.</t>
+          <t>La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8601,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant belhabib located at Restaurant belhabib, Douz. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+belhabib/data=!4m7!3m6!1s0x125687cc45ac99bf:0xab787df45a95d570!8m2!3d33.4551648!4d9.0257011!16s%2Fg%2F11s93xt9nw!19sChIJv5msRcyHVhIRcNWVWvR9eKs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8704,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restaurant, check out Restaurant SAIF located at F25G+RH2 Restaurant SAIF, Douz. This destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on none. To get there, use these GPS coordinates: 34.1070436, 35.8976343. For more details, visit their website at https://www.google.com/maps/place/Restaurant+SAIF/data=!4m7!3m6!1s0x1256871e3547cfd9:0xe02f128159115e00!8m2!3d33.4595198!4d9.0263875!16s%2Fg%2F11g192lysz!19sChIJ2c9HNR6HVhIRAF4RWYESL-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 279 293.</t>
+          <t>Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8799,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>In douz, Dar Ali baba, a top-rated Restaurant, is the perfect destination for Restaurant enthusiasts. With a 5.0 rating, it's a must-visit spot located at F27J+CC in Douz. The restaurant is open during weekday_timing and closed on closed_on. To get there, use GPS coordinates (33.4597601, 9.0244002).</t>
+          <t>Dar Ali Baba is a highly-rated restaurant with a 5.0 rating based on one review. Located in Douz at (33.4597601, 9.0244002), this restaurant specializes in providing dining services and falls under the main category of Restaurant.</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8888,11 @@
           <t>douz</t>
         </is>
       </c>
-      <c r="Y84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9021,7 +8989,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Pizzeria Marella located at F24G+Q8Q Pizzeria Marella, Douz. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 39.889796, 18.3687945. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Marella/data=!4m7!3m6!1s0x125687002938246d:0xec71c4f3abe5b8af!8m2!3d33.4567955!4d9.0243639!16s%2Fg%2F11y2j_b2fz!19sChIJbSQ4KQCHVhIRr7jlq_PEcew?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 319 288.</t>
+          <t>Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9092,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe Jdayda located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260.  This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at https://www.google.com/maps/place/Cafe+Jdayda/data=!4m7!3m6!1s0x125687936739113f:0x19b55a57c137eb57!8m2!3d33.4560183!4d9.0259166!16s%2Fg%2F11ssx6pgk5!19sChIJPxE5Z5OHVhIRV-s3wVdatRk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 517 824.</t>
+          <t>Cafe Jdayda is a cafe located in Douz, Tunisia. It's open from 04:30 to 23:30 and is rated 5.0 stars. It's located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260 and can be contacted at 20 517 824.</t>
         </is>
       </c>
     </row>
@@ -9223,11 +9191,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Le biscuit Douz located at Le biscuit Douz, souk, Douz 4260. 
-This top-rated destination is perfect for Patisserie lovers and offers a range of Patisserie to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website 
-at https://www.google.com/maps/place/Le+biscuit+Douz/data=!4m7!3m6!1s0x125687f91f2285af:0xc420c0a8d3ca5723!8m2!3d33.4550441!4d9.0257661!16s%2Fg%2F11p68h_h0x!19sChIJr4UiH_mHVhIRI1fK06jAIMQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 660 540.</t>
+          <t>Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.</t>
         </is>
       </c>
     </row>
@@ -9322,7 +9286,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe, check out Cafe Azouza located at F24F+4J8 Cafe Azouza, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 98 765 850.</t>
+          <t>Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9393,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Station-service, check out Station Service TotalEnergies DOUZ located at Avenue Habib Bourguiba, Douz 4260. This destination offers a range of Station-service to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4662, 9.02393. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 470 242.</t>
+          <t>Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9492,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out station staroil douz located at station staroil douz, Unnamed Road, Douz. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/station+staroil+douz/data=!4m7!3m6!1s0x1256878f3af185d1:0x7e3aefe70284d635!8m2!3d33.459559!4d9.0441178!16s%2Fg%2F11gglqqxj_!19sChIJ0YXxOo-HVhIRNdaEAufvOn4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 039 334.</t>
+          <t>Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9595,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you find yourself in douz and seeking a reliable transportation service, consider Station Louage Douz, situated at F25C+5VX Station Louage Douz, Douz. This highly rated service provider serves transportation needs with a customer rating of 3.8. The establishment operates from 09:00-17:00 on weekdays, but remains closed on Monday, Tuesday, Saturday, and Sunday. You may reach them via phone at 94 182 860 or visit their website for further details.</t>
+          <t>Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.</t>
         </is>
       </c>
     </row>
@@ -9730,8 +9694,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a reliable gas station, check out Station service Agil DOUZ located at F2FF+W5Q Station service Agil DOUZ, C206, Douz. 
-This top-rated destination is open 24/7 making it convenient for drivers with different schedules. With a rating of 3.4, it's a must-visit spot for your fueling needs. For more information, visit their website or call them at 75 470 128.</t>
+          <t>Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9801,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a gas station, check out Station Ola Energy Douz located at F2FF+M6G Station Ola Energy Douz, Douz. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day and closed on []. To get there, use these GPS coordinates: 0.3766629, 9.4548032. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100038684831811 or call them at 75 471 424.</t>
+          <t>This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9896,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Gare routiere. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 31.9292467, -4.4260977.</t>
+          <t>Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.</t>
         </is>
       </c>
     </row>
@@ -10032,7 +9995,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Station-service, check out Off Road Service located at F25G+FGQ Off Road Service, Douz. This must-visit spot offers a range of Station-service to choose from and has a rating of 5.0. To get there, use these GPS coordinates: 46.401123, -91.802139. You can call them at 99 210 436 for more details.</t>
+          <t>Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10086,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in Douz, check out Louage located at Louage, C206, Douz. This top-rated destination is perfect for public transport lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Louage/data=!4m7!3m6!1s0x125687f072eb0edb:0x3972a6820e2b5481!8m2!3d33.4581282!4d9.022404!16s%2Fg%2F1thjq9pt!19sChIJ2w7rcvCHVhIRgVQrDoKmcjk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at . To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.</t>
         </is>
       </c>
     </row>
